--- a/out/times_gemma3_4B.xlsx
+++ b/out/times_gemma3_4B.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.60980820655823</v>
+        <v>15.66598653793335</v>
       </c>
       <c r="C2" t="n">
-        <v>22.84478807449341</v>
+        <v>22.79587531089783</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.18853092193604</v>
+        <v>15.1628360748291</v>
       </c>
       <c r="C3" t="n">
-        <v>22.56467032432556</v>
+        <v>22.42717409133911</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.77884459495544</v>
+        <v>15.81090188026428</v>
       </c>
       <c r="C4" t="n">
-        <v>40.40209412574768</v>
+        <v>40.25647974014282</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.31356549263</v>
+        <v>16.39934968948364</v>
       </c>
       <c r="C5" t="n">
-        <v>40.49644112586975</v>
+        <v>40.51713991165161</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.23409938812256</v>
+        <v>14.35707259178162</v>
       </c>
       <c r="C6" t="n">
-        <v>23.52901220321655</v>
+        <v>23.56313562393188</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.41199994087219</v>
+        <v>14.512291431427</v>
       </c>
       <c r="C7" t="n">
-        <v>13.56802248954773</v>
+        <v>13.89236044883728</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.39158201217651</v>
+        <v>14.49823951721191</v>
       </c>
       <c r="C8" t="n">
-        <v>13.50192856788635</v>
+        <v>13.41277050971985</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.25869750976562</v>
+        <v>15.27636218070984</v>
       </c>
       <c r="C9" t="n">
-        <v>14.72339653968811</v>
+        <v>14.6560001373291</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.93513059616089</v>
+        <v>16.02639675140381</v>
       </c>
       <c r="C10" t="n">
-        <v>13.02243590354919</v>
+        <v>12.96995854377747</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.02330684661865</v>
+        <v>14.99777603149414</v>
       </c>
       <c r="C11" t="n">
-        <v>13.47573709487915</v>
+        <v>13.46646118164062</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.17909121513367</v>
+        <v>15.39285397529602</v>
       </c>
       <c r="C12" t="n">
-        <v>22.61474013328552</v>
+        <v>22.7418270111084</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.71568512916565</v>
+        <v>14.84666705131531</v>
       </c>
       <c r="C13" t="n">
-        <v>12.36070132255554</v>
+        <v>12.44655418395996</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.09219121932983</v>
+        <v>15.23784160614014</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9587709903717</v>
+        <v>21.89424705505371</v>
       </c>
     </row>
   </sheetData>

--- a/out/times_gemma3_4B.xlsx
+++ b/out/times_gemma3_4B.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.66952967643738</v>
+        <v>16.43270897865295</v>
       </c>
       <c r="C2" t="n">
-        <v>23.83491277694702</v>
+        <v>23.54311895370483</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.65823459625244</v>
+        <v>18.78989720344543</v>
       </c>
       <c r="C3" t="n">
-        <v>23.38863015174866</v>
+        <v>23.19322800636292</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.95486736297607</v>
+        <v>16.78513097763062</v>
       </c>
       <c r="C4" t="n">
-        <v>40.95999550819397</v>
+        <v>40.35292816162109</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.63538265228271</v>
+        <v>17.47561025619507</v>
       </c>
       <c r="C5" t="n">
-        <v>41.48025369644165</v>
+        <v>40.89450240135193</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.1932258605957</v>
+        <v>15.91819500923157</v>
       </c>
       <c r="C6" t="n">
-        <v>24.12426209449768</v>
+        <v>23.95486831665039</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.75053191184998</v>
+        <v>15.52881503105164</v>
       </c>
       <c r="C7" t="n">
-        <v>13.30205607414246</v>
+        <v>13.12521290779114</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.61865019798279</v>
+        <v>15.44611811637878</v>
       </c>
       <c r="C8" t="n">
-        <v>13.21453881263733</v>
+        <v>13.20347595214844</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.59383058547974</v>
+        <v>16.37338423728943</v>
       </c>
       <c r="C9" t="n">
-        <v>15.85423135757446</v>
+        <v>15.67780590057373</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.31583595275879</v>
+        <v>17.06266522407532</v>
       </c>
       <c r="C10" t="n">
-        <v>14.17928624153137</v>
+        <v>14.08163928985596</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.27739357948303</v>
+        <v>18.0543212890625</v>
       </c>
       <c r="C11" t="n">
-        <v>14.54531979560852</v>
+        <v>14.3774573802948</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.70072507858276</v>
+        <v>16.45379877090454</v>
       </c>
       <c r="C12" t="n">
-        <v>23.76682662963867</v>
+        <v>23.45046162605286</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.89387130737305</v>
+        <v>15.96139883995056</v>
       </c>
       <c r="C13" t="n">
-        <v>13.46840167045593</v>
+        <v>13.53701448440552</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.63637661933899</v>
+        <v>16.55931401252747</v>
       </c>
       <c r="C14" t="n">
-        <v>23.07707476615906</v>
+        <v>22.6620945930481</v>
       </c>
     </row>
   </sheetData>
